--- a/Assets/Cards/Foreign Nation Cards/Foreign Nations.xlsx
+++ b/Assets/Cards/Foreign Nation Cards/Foreign Nations.xlsx
@@ -1,142 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\Assets\Cards\Foreign Nation Cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0D8361-266D-40FC-BBAE-8EBDC5118233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2775" windowWidth="27480" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Effect</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Place 1 influence on an adjacent territory you do not control. then, if you have 3 or more influence than any other Nation in that territory, put that territory under your control</t>
+  </si>
+  <si>
+    <t>Aggression</t>
+  </si>
+  <si>
+    <t>Spreading Influence</t>
+  </si>
+  <si>
+    <t>If you have  no casus belli tokens on the map, place a casus belli token on an adjacent tile, prioritizing neutral tiles first. The token cannot be placed on the tile of a nation that has a nuke
+If you have a casus belli token on the map, move your troops to a territory with your Casus Belli token on it. If your troops are the only ones remaining there at the end of the turn, add that territory to your Nation</t>
+  </si>
+  <si>
+    <t>Casus Belli / Annex</t>
+  </si>
+  <si>
+    <t>Gain 4 Credits. Any Nation that has less Credits than you loses 4 Credits</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Economic Warfare</t>
+  </si>
+  <si>
+    <t>Gain 6 Credits</t>
+  </si>
+  <si>
+    <t>Hedge Funds</t>
+  </si>
+  <si>
+    <t>Gain 4 Credits</t>
+  </si>
+  <si>
+    <t>Easy Mark</t>
+  </si>
+  <si>
+    <t>If you have no 2 nukes or less, build 2 nukes.</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Stockpile</t>
+  </si>
+  <si>
+    <t>Remove 1 foreign influence from a territory you own, and from a territory adjacent to you</t>
+  </si>
+  <si>
+    <t>Purge</t>
+  </si>
+  <si>
+    <t>Permenantly increase the health of your Troops by 1. Increase your Kardashev Scale by 1. Remove this card from the game once it is resolved.</t>
+  </si>
+  <si>
+    <t>Troop Enhancements</t>
+  </si>
+  <si>
+    <t>Permenantly increase the chance to hit of your Troops by 1. Increase your Kardashev Scale by 1. Remove this card from the game once it is resolved.</t>
+  </si>
+  <si>
+    <t>Add 2 Troops to your Nation. Any Nation that has less Troops than you loses 4 Credits</t>
+  </si>
+  <si>
+    <t>Big Stick Policy</t>
+  </si>
+  <si>
+    <t>Do an intellegence check against the Player Nation. If successful, increase your intellegence by 2</t>
+  </si>
+  <si>
+    <t>Increase your KS by 2</t>
   </si>
   <si>
     <t>Science</t>
   </si>
   <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Place 1 influence on an adjacent territory you do not control</t>
-  </si>
-  <si>
-    <t>Aggression</t>
-  </si>
-  <si>
-    <t>If you have  no casus belli tokens on the map, place a casus belli token on an adjacent tile, then put this card to the top of the pile
-Otherwise, move your troops to a territory with your Casus Belli token on it. If your troops are the only ones remaining there at the end of the turn, add that territory to your Nation</t>
-  </si>
-  <si>
-    <t>Purge</t>
-  </si>
-  <si>
-    <t>Remove 1 influence from a territory you own or is adjacent to you</t>
-  </si>
-  <si>
-    <t>Do an intellegence check against the Player Nation. If successful, increase your intellegence by 2</t>
-  </si>
-  <si>
-    <t>Economic Warfare</t>
-  </si>
-  <si>
-    <t>Gain 4 Credits. Any Nation that has less Credits than you loses 4 Credits</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>Increase the Kardashev Scale by 2 for this Foreign Nation</t>
-  </si>
-  <si>
-    <t>If you have no nukes, build 2 nukes</t>
-  </si>
-  <si>
-    <t>Increase Kardashev Scale by 1. Any Nation whose Kardashev Scale is less than yours loses 4 Credits</t>
+    <t>Increase your KS by 1</t>
+  </si>
+  <si>
+    <t>Increase your KS by 1. Any Nation whose Kardashev Scale is less than yours loses 4 Credits</t>
   </si>
   <si>
     <t>Technological Superiority</t>
-  </si>
-  <si>
-    <t>Big Stick Policy</t>
-  </si>
-  <si>
-    <t>Increase the attack of your Troops by 1. Increase your Kardashev Scale by 1. Remove this card from the game once it is resolved.</t>
-  </si>
-  <si>
-    <t>Increase the health of your Troops by 1. Increase your Kardashev Scale by 1. Remove this card from the game once it is resolved.</t>
-  </si>
-  <si>
-    <t>Increase the chance to hit of your Troops by 1. Increase your Kardashev Scale by 1. Remove this card from the game once it is resolved.</t>
-  </si>
-  <si>
-    <t>Add 2 Troops to your Nation. Any Nation that has less Troops than you loses 4 Credits</t>
-  </si>
-  <si>
-    <t>Gain 6 Credits</t>
-  </si>
-  <si>
-    <t>Gain 4 Credits</t>
-  </si>
-  <si>
-    <t>Hedge Funds</t>
-  </si>
-  <si>
-    <t>Easy Mark</t>
-  </si>
-  <si>
-    <t>Increase the Kardashev Scale by 1 for this Foreign Nation</t>
-  </si>
-  <si>
-    <t>Spreading Influence</t>
-  </si>
-  <si>
-    <t>WAAAGH</t>
-  </si>
-  <si>
-    <t>Stockpile</t>
-  </si>
-  <si>
-    <t>Troop Enhancements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,19 +137,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,31 +494,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,205 +1062,191 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="85.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="85.1363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" ht="28.5" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" ht="85.5" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+  <autoFilter ref="A1:C15">
+    <sortState ref="A1:C15">
       <sortCondition ref="B1"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+  <sortState ref="A2:C16">
     <sortCondition ref="B1:B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Cards/Foreign Nation Cards/Foreign Nations.xlsx
+++ b/Assets/Cards/Foreign Nation Cards/Foreign Nations.xlsx
@@ -118,12 +118,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,21 +150,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +227,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -186,9 +249,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,52 +265,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,46 +284,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,181 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +491,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,54 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,169 +585,171 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,16 +1074,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="85.1363636363636" style="2" customWidth="1"/>
+    <col min="1" max="1" width="85.1363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1090,85 +1093,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="85.5" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="2" customFormat="1" ht="85.5" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -1179,7 +1182,7 @@
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
@@ -1190,7 +1193,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
@@ -1200,38 +1203,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
